--- a/Reports/Output.xlsx
+++ b/Reports/Output.xlsx
@@ -413,151 +413,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Apple iPhone 7 (Black, 32 GB)</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>₹29,499</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">92,212 </t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Apple iPhone 7 (Silver, 32 GB)</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>₹29,499</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">92,212 </t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Apple iPhone 6 (Gold, 32 GB)</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>₹29,799</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1,44,742 </t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Apple iPhone 6s Plus (Space Grey, 16 GB)</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>₹34,990</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18,702 </t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Apple iPhone 7 Plus (Black, 32 GB)</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>₹35,999</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">28,283 </t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Apple iPhone SE (Black, 64 GB)</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>₹35,999</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">20,468 </t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Apple iPhone SE (Red, 64 GB)</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>₹35,999</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">20,468 </t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Apple iPhone SE (White, 64 GB)</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>₹35,999</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">20,468 </t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>